--- a/Pruebas.xlsx
+++ b/Pruebas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66BCC9B-E147-4AE9-87F1-169BF8449C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55A5859-F5A5-42E5-809B-BB107A327918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,67 +340,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas.xlsx
+++ b/Pruebas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66BCC9B-E147-4AE9-87F1-169BF8449C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D82A1-5B0C-42CD-B8FD-460F47BA9524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,67 +340,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
+      </c>
+      <c r="B11">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
